--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130938733</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938748</v>
+        <v>130938742</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476501</v>
+        <v>476481</v>
       </c>
       <c r="R3" t="n">
-        <v>7033912</v>
+        <v>7033943</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130938742</v>
+        <v>130938748</v>
       </c>
       <c r="B4" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -947,26 +947,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>476481</v>
+        <v>476501</v>
       </c>
       <c r="R4" t="n">
-        <v>7033943</v>
+        <v>7033912</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1060,7 +1060,7 @@
         <v>130938725</v>
       </c>
       <c r="B5" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>130938736</v>
       </c>
       <c r="B6" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>130938750</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>130938745</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>130938749</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>130938727</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>130938747</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>130938744</v>
       </c>
       <c r="B12" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>130938730</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>130938737</v>
       </c>
       <c r="B14" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>130938729</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>130938723</v>
       </c>
       <c r="B16" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130938740</v>
+        <v>130938743</v>
       </c>
       <c r="B17" t="n">
-        <v>78251</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2569,26 +2569,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>476532</v>
+        <v>476555</v>
       </c>
       <c r="R17" t="n">
-        <v>7033586</v>
+        <v>7033581</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,6 +2647,21 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2664,10 +2679,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130938743</v>
+        <v>130938740</v>
       </c>
       <c r="B18" t="n">
-        <v>91824</v>
+        <v>78255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2675,26 +2690,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Chaenothecopsis nana</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2702,10 +2717,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>476555</v>
+        <v>476532</v>
       </c>
       <c r="R18" t="n">
-        <v>7033581</v>
+        <v>7033586</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2753,21 +2768,6 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
         <v>130938752</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>130938734</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>130938724</v>
       </c>
       <c r="B21" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>130938728</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>130938732</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>130938731</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130938746</v>
+        <v>130938751</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>476419</v>
+        <v>476394</v>
       </c>
       <c r="R25" t="n">
-        <v>7033605</v>
+        <v>7033617</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130938751</v>
+        <v>130938746</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>476394</v>
+        <v>476419</v>
       </c>
       <c r="R26" t="n">
-        <v>7033617</v>
+        <v>7033605</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -2302,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130938729</v>
+        <v>130938723</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2313,31 +2313,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2345,10 +2340,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>476618</v>
+        <v>476289</v>
       </c>
       <c r="R15" t="n">
-        <v>7033500</v>
+        <v>7033519</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2383,17 +2378,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2412,14 +2403,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2437,10 +2423,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130938723</v>
+        <v>130938729</v>
       </c>
       <c r="B16" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2448,26 +2434,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2475,10 +2466,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>476289</v>
+        <v>476618</v>
       </c>
       <c r="R16" t="n">
-        <v>7033519</v>
+        <v>7033500</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2513,13 +2504,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2538,9 +2533,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130938743</v>
+        <v>130938740</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>78255</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2569,26 +2569,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>228579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Chaenothecopsis nana</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>476555</v>
+        <v>476532</v>
       </c>
       <c r="R17" t="n">
-        <v>7033581</v>
+        <v>7033586</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,21 +2647,6 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2679,10 +2664,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130938740</v>
+        <v>130938743</v>
       </c>
       <c r="B18" t="n">
-        <v>78255</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2690,26 +2675,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2717,10 +2702,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>476532</v>
+        <v>476555</v>
       </c>
       <c r="R18" t="n">
-        <v>7033586</v>
+        <v>7033581</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2768,6 +2753,21 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130938752</v>
+        <v>130938734</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2796,26 +2796,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2823,10 +2828,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>476286</v>
+        <v>476457</v>
       </c>
       <c r="R19" t="n">
-        <v>7033527</v>
+        <v>7033634</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2861,13 +2866,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2886,9 +2895,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2906,10 +2920,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130938734</v>
+        <v>130938752</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2917,31 +2931,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2949,10 +2958,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>476457</v>
+        <v>476286</v>
       </c>
       <c r="R20" t="n">
-        <v>7033634</v>
+        <v>7033527</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2987,17 +2996,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3016,14 +3021,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130938731</v>
+        <v>130938751</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3443,31 +3443,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3475,10 +3470,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>476549</v>
+        <v>476394</v>
       </c>
       <c r="R24" t="n">
-        <v>7033604</v>
+        <v>7033617</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3513,17 +3508,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3562,7 +3553,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130938751</v>
+        <v>130938746</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3600,10 +3591,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>476394</v>
+        <v>476419</v>
       </c>
       <c r="R25" t="n">
-        <v>7033617</v>
+        <v>7033605</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3683,10 +3674,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130938746</v>
+        <v>130938731</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3694,26 +3685,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3721,10 +3717,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>476419</v>
+        <v>476549</v>
       </c>
       <c r="R26" t="n">
-        <v>7033605</v>
+        <v>7033604</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3759,13 +3755,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -1057,10 +1057,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130938725</v>
+        <v>130938736</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>58043</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,41 +1068,50 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>476460</v>
+        <v>476389</v>
       </c>
       <c r="R5" t="n">
-        <v>7033592</v>
+        <v>7033614</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,33 +1152,12 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1187,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130938736</v>
+        <v>130938725</v>
       </c>
       <c r="B6" t="n">
-        <v>58043</v>
+        <v>91808</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,50 +1186,41 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>476389</v>
+        <v>476460</v>
       </c>
       <c r="R6" t="n">
-        <v>7033614</v>
+        <v>7033592</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,12 +1261,33 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130938734</v>
+        <v>130938752</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2796,31 +2796,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2828,10 +2823,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>476457</v>
+        <v>476286</v>
       </c>
       <c r="R19" t="n">
-        <v>7033634</v>
+        <v>7033527</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2866,17 +2861,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2895,14 +2886,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2920,10 +2906,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130938752</v>
+        <v>130938734</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2931,26 +2917,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2958,10 +2949,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>476286</v>
+        <v>476457</v>
       </c>
       <c r="R20" t="n">
-        <v>7033527</v>
+        <v>7033634</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2996,13 +2987,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3021,9 +3016,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -2302,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130938723</v>
+        <v>130938729</v>
       </c>
       <c r="B15" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2313,26 +2313,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2340,10 +2345,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>476289</v>
+        <v>476618</v>
       </c>
       <c r="R15" t="n">
-        <v>7033519</v>
+        <v>7033500</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2378,13 +2383,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2403,9 +2412,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2423,10 +2437,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130938729</v>
+        <v>130938723</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2434,31 +2448,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2466,10 +2475,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>476618</v>
+        <v>476289</v>
       </c>
       <c r="R16" t="n">
-        <v>7033500</v>
+        <v>7033519</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2504,17 +2513,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2533,14 +2538,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130938740</v>
+        <v>130938743</v>
       </c>
       <c r="B17" t="n">
-        <v>78255</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2569,26 +2569,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>476532</v>
+        <v>476555</v>
       </c>
       <c r="R17" t="n">
-        <v>7033586</v>
+        <v>7033581</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,6 +2647,21 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2664,10 +2679,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130938743</v>
+        <v>130938740</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>78255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2675,26 +2690,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Chaenothecopsis nana</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2702,10 +2717,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>476555</v>
+        <v>476532</v>
       </c>
       <c r="R18" t="n">
-        <v>7033581</v>
+        <v>7033586</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2753,21 +2768,6 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130938724</v>
+        <v>130938728</v>
       </c>
       <c r="B21" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3052,26 +3052,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3079,10 +3084,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>476565</v>
+        <v>476499</v>
       </c>
       <c r="R21" t="n">
-        <v>7033670</v>
+        <v>7033819</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3117,13 +3122,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3142,9 +3151,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3162,10 +3176,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130938728</v>
+        <v>130938724</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3173,31 +3187,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3205,10 +3214,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>476499</v>
+        <v>476565</v>
       </c>
       <c r="R22" t="n">
-        <v>7033819</v>
+        <v>7033670</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3243,17 +3252,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3272,14 +3277,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130938751</v>
+        <v>130938746</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3470,10 +3470,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>476394</v>
+        <v>476419</v>
       </c>
       <c r="R24" t="n">
-        <v>7033617</v>
+        <v>7033605</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130938746</v>
+        <v>130938731</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3564,26 +3564,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3591,10 +3596,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>476419</v>
+        <v>476549</v>
       </c>
       <c r="R25" t="n">
-        <v>7033605</v>
+        <v>7033604</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3629,13 +3634,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3674,10 +3683,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130938731</v>
+        <v>130938751</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3685,31 +3694,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3717,10 +3721,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>476549</v>
+        <v>476394</v>
       </c>
       <c r="R26" t="n">
-        <v>7033604</v>
+        <v>7033617</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3755,17 +3759,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938742</v>
+        <v>130938748</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476481</v>
+        <v>476501</v>
       </c>
       <c r="R3" t="n">
-        <v>7033943</v>
+        <v>7033912</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130938748</v>
+        <v>130938742</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -947,26 +947,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>476501</v>
+        <v>476481</v>
       </c>
       <c r="R4" t="n">
-        <v>7033912</v>
+        <v>7033943</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130938736</v>
+        <v>130938725</v>
       </c>
       <c r="B5" t="n">
-        <v>58043</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,50 +1068,41 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>476389</v>
+        <v>476460</v>
       </c>
       <c r="R5" t="n">
-        <v>7033614</v>
+        <v>7033592</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1152,12 +1143,33 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1175,10 +1187,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130938725</v>
+        <v>130938736</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1186,41 +1198,50 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>476460</v>
+        <v>476389</v>
       </c>
       <c r="R6" t="n">
-        <v>7033592</v>
+        <v>7033614</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1261,33 +1282,12 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130938729</v>
+        <v>130938723</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2313,31 +2313,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2345,10 +2340,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>476618</v>
+        <v>476289</v>
       </c>
       <c r="R15" t="n">
-        <v>7033500</v>
+        <v>7033519</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2383,17 +2378,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2412,14 +2403,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2437,10 +2423,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130938723</v>
+        <v>130938729</v>
       </c>
       <c r="B16" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2448,26 +2434,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2475,10 +2466,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>476289</v>
+        <v>476618</v>
       </c>
       <c r="R16" t="n">
-        <v>7033519</v>
+        <v>7033500</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2513,13 +2504,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2538,9 +2533,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130938728</v>
+        <v>130938724</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3052,31 +3052,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3084,10 +3079,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>476499</v>
+        <v>476565</v>
       </c>
       <c r="R21" t="n">
-        <v>7033819</v>
+        <v>7033670</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3122,17 +3117,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3151,14 +3142,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3176,10 +3162,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130938724</v>
+        <v>130938728</v>
       </c>
       <c r="B22" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3187,26 +3173,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3214,10 +3205,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>476565</v>
+        <v>476499</v>
       </c>
       <c r="R22" t="n">
-        <v>7033670</v>
+        <v>7033819</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3252,13 +3243,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3277,9 +3272,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130938746</v>
+        <v>130938751</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3470,10 +3470,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>476419</v>
+        <v>476394</v>
       </c>
       <c r="R24" t="n">
-        <v>7033605</v>
+        <v>7033617</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130938731</v>
+        <v>130938746</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3564,31 +3564,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3596,10 +3591,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>476549</v>
+        <v>476419</v>
       </c>
       <c r="R25" t="n">
-        <v>7033604</v>
+        <v>7033605</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3634,17 +3629,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3683,10 +3674,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130938751</v>
+        <v>130938731</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3694,26 +3685,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3721,10 +3717,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>476394</v>
+        <v>476549</v>
       </c>
       <c r="R26" t="n">
-        <v>7033617</v>
+        <v>7033604</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3759,13 +3755,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938748</v>
+        <v>130938742</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476501</v>
+        <v>476481</v>
       </c>
       <c r="R3" t="n">
-        <v>7033912</v>
+        <v>7033943</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130938742</v>
+        <v>130938748</v>
       </c>
       <c r="B4" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -947,26 +947,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>476481</v>
+        <v>476501</v>
       </c>
       <c r="R4" t="n">
-        <v>7033943</v>
+        <v>7033912</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130938725</v>
+        <v>130938736</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>58043</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,41 +1068,50 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>476460</v>
+        <v>476389</v>
       </c>
       <c r="R5" t="n">
-        <v>7033592</v>
+        <v>7033614</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,33 +1152,12 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1187,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130938736</v>
+        <v>130938725</v>
       </c>
       <c r="B6" t="n">
-        <v>58043</v>
+        <v>91808</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,50 +1186,41 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>476389</v>
+        <v>476460</v>
       </c>
       <c r="R6" t="n">
-        <v>7033614</v>
+        <v>7033592</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,12 +1261,33 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130938743</v>
+        <v>130938740</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>78255</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2569,26 +2569,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>228579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Chaenothecopsis nana</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>476555</v>
+        <v>476532</v>
       </c>
       <c r="R17" t="n">
-        <v>7033581</v>
+        <v>7033586</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,21 +2647,6 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2679,10 +2664,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130938740</v>
+        <v>130938743</v>
       </c>
       <c r="B18" t="n">
-        <v>78255</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2690,26 +2675,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2717,10 +2702,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>476532</v>
+        <v>476555</v>
       </c>
       <c r="R18" t="n">
-        <v>7033586</v>
+        <v>7033581</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2768,6 +2753,21 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -1057,10 +1057,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130938736</v>
+        <v>130938725</v>
       </c>
       <c r="B5" t="n">
-        <v>58043</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,50 +1068,41 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>476389</v>
+        <v>476460</v>
       </c>
       <c r="R5" t="n">
-        <v>7033614</v>
+        <v>7033592</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1152,12 +1143,33 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1175,10 +1187,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130938725</v>
+        <v>130938736</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1186,41 +1198,50 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stensvågen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>476460</v>
+        <v>476389</v>
       </c>
       <c r="R6" t="n">
-        <v>7033592</v>
+        <v>7033614</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1261,33 +1282,12 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130938740</v>
+        <v>130938743</v>
       </c>
       <c r="B17" t="n">
-        <v>78255</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2569,26 +2569,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>476532</v>
+        <v>476555</v>
       </c>
       <c r="R17" t="n">
-        <v>7033586</v>
+        <v>7033581</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,6 +2647,21 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2664,10 +2679,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130938743</v>
+        <v>130938740</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>78255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2675,26 +2690,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Chaenothecopsis nana</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2702,10 +2717,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>476555</v>
+        <v>476532</v>
       </c>
       <c r="R18" t="n">
-        <v>7033581</v>
+        <v>7033586</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2753,21 +2768,6 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130938752</v>
+        <v>130938734</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2796,26 +2796,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2823,10 +2828,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>476286</v>
+        <v>476457</v>
       </c>
       <c r="R19" t="n">
-        <v>7033527</v>
+        <v>7033634</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2861,13 +2866,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2886,9 +2895,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2906,10 +2920,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130938734</v>
+        <v>130938752</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2917,31 +2931,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2949,10 +2958,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>476457</v>
+        <v>476286</v>
       </c>
       <c r="R20" t="n">
-        <v>7033634</v>
+        <v>7033527</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2987,17 +2996,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3016,14 +3021,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938742</v>
+        <v>130938748</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476481</v>
+        <v>476501</v>
       </c>
       <c r="R3" t="n">
-        <v>7033943</v>
+        <v>7033912</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130938748</v>
+        <v>130938742</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -947,26 +947,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>476501</v>
+        <v>476481</v>
       </c>
       <c r="R4" t="n">
-        <v>7033912</v>
+        <v>7033943</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130938734</v>
+        <v>130938752</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2796,31 +2796,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2828,10 +2823,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>476457</v>
+        <v>476286</v>
       </c>
       <c r="R19" t="n">
-        <v>7033634</v>
+        <v>7033527</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2866,17 +2861,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2895,14 +2886,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2920,10 +2906,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130938752</v>
+        <v>130938734</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2931,26 +2917,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2958,10 +2949,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>476286</v>
+        <v>476457</v>
       </c>
       <c r="R20" t="n">
-        <v>7033527</v>
+        <v>7033634</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2996,13 +2987,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3021,9 +3016,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938748</v>
+        <v>130938742</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -826,26 +826,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476501</v>
+        <v>476481</v>
       </c>
       <c r="R3" t="n">
-        <v>7033912</v>
+        <v>7033943</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130938742</v>
+        <v>130938748</v>
       </c>
       <c r="B4" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -947,26 +947,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>476481</v>
+        <v>476501</v>
       </c>
       <c r="R4" t="n">
-        <v>7033943</v>
+        <v>7033912</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1060,7 +1060,7 @@
         <v>130938725</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>130938750</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>130938745</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>130938749</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>130938747</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>130938744</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>130938723</v>
       </c>
       <c r="B15" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>130938743</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>130938740</v>
       </c>
       <c r="B18" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130938752</v>
+        <v>130938734</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2796,26 +2796,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2823,10 +2828,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>476286</v>
+        <v>476457</v>
       </c>
       <c r="R19" t="n">
-        <v>7033527</v>
+        <v>7033634</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2861,13 +2866,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2886,9 +2895,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2906,10 +2920,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130938734</v>
+        <v>130938752</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2917,31 +2931,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2949,10 +2958,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>476457</v>
+        <v>476286</v>
       </c>
       <c r="R20" t="n">
-        <v>7033634</v>
+        <v>7033527</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2987,17 +2996,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3016,14 +3021,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3044,7 +3044,7 @@
         <v>130938724</v>
       </c>
       <c r="B21" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>130938751</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>130938746</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/artfynd/A 61654-2025 artfynd.xlsx
+++ b/artfynd/A 61654-2025 artfynd.xlsx
@@ -2302,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130938723</v>
+        <v>130938729</v>
       </c>
       <c r="B15" t="n">
-        <v>83224</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2313,26 +2313,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2340,10 +2345,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>476289</v>
+        <v>476618</v>
       </c>
       <c r="R15" t="n">
-        <v>7033519</v>
+        <v>7033500</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2378,13 +2383,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2403,9 +2412,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2423,10 +2437,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130938729</v>
+        <v>130938723</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>83224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2434,31 +2448,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2466,10 +2475,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>476618</v>
+        <v>476289</v>
       </c>
       <c r="R16" t="n">
-        <v>7033500</v>
+        <v>7033519</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2504,17 +2513,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2533,14 +2538,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130938734</v>
+        <v>130938752</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2796,31 +2796,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2828,10 +2823,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>476457</v>
+        <v>476286</v>
       </c>
       <c r="R19" t="n">
-        <v>7033634</v>
+        <v>7033527</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2866,17 +2861,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2895,14 +2886,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2920,10 +2906,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130938752</v>
+        <v>130938734</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2931,26 +2917,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2958,10 +2949,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>476286</v>
+        <v>476457</v>
       </c>
       <c r="R20" t="n">
-        <v>7033527</v>
+        <v>7033634</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2996,13 +2987,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3021,9 +3016,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130938724</v>
+        <v>130938728</v>
       </c>
       <c r="B21" t="n">
-        <v>83224</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3052,26 +3052,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3079,10 +3084,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>476565</v>
+        <v>476499</v>
       </c>
       <c r="R21" t="n">
-        <v>7033670</v>
+        <v>7033819</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3117,13 +3122,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3142,9 +3151,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3162,10 +3176,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130938728</v>
+        <v>130938724</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>83224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3173,31 +3187,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3205,10 +3214,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>476499</v>
+        <v>476565</v>
       </c>
       <c r="R22" t="n">
-        <v>7033819</v>
+        <v>7033670</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3243,17 +3252,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3272,14 +3277,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130938751</v>
+        <v>130938731</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3443,26 +3443,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3470,10 +3475,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>476394</v>
+        <v>476549</v>
       </c>
       <c r="R24" t="n">
-        <v>7033617</v>
+        <v>7033604</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3508,13 +3513,17 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3553,7 +3562,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130938746</v>
+        <v>130938751</v>
       </c>
       <c r="B25" t="n">
         <v>79244</v>
@@ -3591,10 +3600,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>476419</v>
+        <v>476394</v>
       </c>
       <c r="R25" t="n">
-        <v>7033605</v>
+        <v>7033617</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3674,10 +3683,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130938731</v>
+        <v>130938746</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3685,31 +3694,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3717,10 +3721,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>476549</v>
+        <v>476419</v>
       </c>
       <c r="R26" t="n">
-        <v>7033604</v>
+        <v>7033605</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3755,17 +3759,13 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
